--- a/outputs-HGR-r202/g__Faecalimonas.xlsx
+++ b/outputs-HGR-r202/g__Faecalimonas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,47 +504,235 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT15916.fa</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05403160442924822</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.242732741654735e-14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8079399894102233</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.09043499978737932</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03920126579000054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0008182724905635022</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0001714377854076705</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.007229785838113486</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0001726444690417155</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.8079399894102233</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT20261.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1253100192694534</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.237328669771785e-14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6265224172633465</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1973510010904205</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.03818909290919313</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006347158110810266</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0001325629035615543</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.005540925719710536</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0006068227334817711</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6265224172633465</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT38358.fa</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.06142149772014227</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.260457816589962e-14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6935963542678523</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2208904772348067</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.01815173132900412</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003674605011840335</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.00113420340623192</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.004187953161387989</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0002503223793679786</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.6935963542678523</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT3891.fa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.05215657121566464</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.270480424195217e-14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5922023132771564</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3319578279781333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0203287631550464</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0005694181776284784</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0001196893307631937</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.002074091353134334</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.0005913255124503945</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5922023132771564</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325(reject)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT3907.fa</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B6" t="n">
         <v>0.04816681400476255</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C6" t="n">
         <v>2.248007230307971e-14</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D6" t="n">
         <v>0.7454457255144268</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E6" t="n">
         <v>0.1716023731090427</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F6" t="n">
         <v>0.03020866486480233</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G6" t="n">
         <v>0.002195848348749817</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H6" t="n">
         <v>0.0001234409339720801</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I6" t="n">
         <v>0.001955801632398761</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J6" t="n">
         <v>0.000301331591822404</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K6" t="n">
         <v>0.7454457255144268</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>s__Faecalimonas sp900546325</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>s__Faecalimonas sp900546325(reject)</t>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Faecalimonas.xlsx
+++ b/outputs-HGR-r202/g__Faecalimonas.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -579,6 +589,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -621,6 +636,11 @@
           <t>s__Faecalimonas sp900551895</t>
         </is>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900551895</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -663,6 +683,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -705,6 +730,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -747,6 +777,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -789,6 +824,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -831,6 +871,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -873,6 +918,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -915,6 +965,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -957,6 +1012,11 @@
           <t>s__Faecalimonas sp900551895</t>
         </is>
       </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900551895</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -999,6 +1059,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1041,6 +1106,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1083,6 +1153,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1125,6 +1200,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1167,6 +1247,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1209,6 +1294,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1251,6 +1341,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1293,6 +1388,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1335,6 +1435,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1377,6 +1482,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1419,6 +1529,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1461,6 +1576,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1503,6 +1623,11 @@
           <t>s__Faecalimonas sp900546325</t>
         </is>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1541,6 +1666,11 @@
         <v>0.8075172946032396</v>
       </c>
       <c r="L26" t="inlineStr">
+        <is>
+          <t>s__Faecalimonas sp900546325</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>s__Faecalimonas sp900546325</t>
         </is>
